--- a/artfynd/A 66979-2020.xlsx
+++ b/artfynd/A 66979-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96780135</v>
+        <v>96775736</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>89412</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>658733.0048414731</v>
+        <v>658730.5226168972</v>
       </c>
       <c r="R2" t="n">
-        <v>6636920.163120084</v>
+        <v>6637449.43415721</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96779183</v>
+        <v>96777744</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>658704.2164550385</v>
+        <v>658769.3765012868</v>
       </c>
       <c r="R3" t="n">
-        <v>6637062.857129692</v>
+        <v>6637283.535847809</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96780122</v>
+        <v>96778360</v>
       </c>
       <c r="B4" t="n">
-        <v>89832</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -919,39 +919,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>658733.0048414731</v>
+        <v>658743.2312543363</v>
       </c>
       <c r="R4" t="n">
-        <v>6636920.163120084</v>
+        <v>6637305.564015599</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1020,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96779825</v>
+        <v>96777066</v>
       </c>
       <c r="B5" t="n">
-        <v>89376</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,25 +1033,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4660</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>658637.0597997338</v>
+        <v>658712.8441804391</v>
       </c>
       <c r="R5" t="n">
-        <v>6636982.990721731</v>
+        <v>6637414.964914286</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1133,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96775736</v>
+        <v>96780597</v>
       </c>
       <c r="B6" t="n">
-        <v>89412</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,21 +1150,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1175,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>658730.5226168972</v>
+        <v>658693.8994370478</v>
       </c>
       <c r="R6" t="n">
-        <v>6637449.43415721</v>
+        <v>6637469.000542388</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1246,10 +1247,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96777744</v>
+        <v>96780135</v>
       </c>
       <c r="B7" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1258,40 +1259,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>658769.3765012868</v>
+        <v>658733.0048414731</v>
       </c>
       <c r="R7" t="n">
-        <v>6637283.535847809</v>
+        <v>6636920.163120084</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96779798</v>
+        <v>96779183</v>
       </c>
       <c r="B8" t="n">
-        <v>43464</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,41 +1376,36 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101735</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>658637.0597997338</v>
+        <v>658704.2164550385</v>
       </c>
       <c r="R8" t="n">
-        <v>6636982.990721731</v>
+        <v>6637062.857129692</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1479,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96780278</v>
+        <v>96780122</v>
       </c>
       <c r="B9" t="n">
-        <v>93132</v>
+        <v>89832</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1491,40 +1486,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2671</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>658722.9088558007</v>
+        <v>658733.0048414731</v>
       </c>
       <c r="R9" t="n">
-        <v>6636991.191442309</v>
+        <v>6636920.163120084</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1593,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96779993</v>
+        <v>96779825</v>
       </c>
       <c r="B10" t="n">
-        <v>43464</v>
+        <v>89376</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1609,41 +1603,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>101735</v>
+        <v>4660</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>658739.4120713262</v>
+        <v>658637.0597997338</v>
       </c>
       <c r="R10" t="n">
-        <v>6636888.229354058</v>
+        <v>6636982.990721731</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1712,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96778360</v>
+        <v>96779798</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>43464</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1728,36 +1716,41 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>101735</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>658743.2312543363</v>
+        <v>658637.0597997338</v>
       </c>
       <c r="R11" t="n">
-        <v>6637305.564015599</v>
+        <v>6636982.990721731</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1826,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96780357</v>
+        <v>96780278</v>
       </c>
       <c r="B12" t="n">
-        <v>98520</v>
+        <v>93132</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1842,21 +1835,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>2671</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1868,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>658747.5451754113</v>
+        <v>658722.9088558007</v>
       </c>
       <c r="R12" t="n">
-        <v>6637110.504147635</v>
+        <v>6636991.191442309</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1940,10 +1933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96780175</v>
+        <v>96779993</v>
       </c>
       <c r="B13" t="n">
-        <v>90005</v>
+        <v>43464</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1956,35 +1949,41 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1339</v>
+        <v>101735</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>658742.8409314866</v>
+        <v>658739.4120713262</v>
       </c>
       <c r="R13" t="n">
-        <v>6636937.694258579</v>
+        <v>6636888.229354058</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2053,10 +2052,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96777066</v>
+        <v>96780357</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2065,39 +2064,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>658712.8441804391</v>
+        <v>658747.5451754113</v>
       </c>
       <c r="R14" t="n">
-        <v>6637414.964914286</v>
+        <v>6637110.504147635</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96780597</v>
+        <v>96780175</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>90005</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2178,25 +2178,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>1339</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2207,10 +2207,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>658693.8994370478</v>
+        <v>658742.8409314866</v>
       </c>
       <c r="R15" t="n">
-        <v>6637469.000542388</v>
+        <v>6636937.694258579</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>

--- a/artfynd/A 66979-2020.xlsx
+++ b/artfynd/A 66979-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96775736</v>
+        <v>96780135</v>
       </c>
       <c r="B2" t="n">
-        <v>89412</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>658730.5226168972</v>
+        <v>658733.0048414731</v>
       </c>
       <c r="R2" t="n">
-        <v>6637449.43415721</v>
+        <v>6636920.163120084</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96777744</v>
+        <v>96779183</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>658769.3765012868</v>
+        <v>658704.2164550385</v>
       </c>
       <c r="R3" t="n">
-        <v>6637283.535847809</v>
+        <v>6637062.857129692</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96778360</v>
+        <v>96780122</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>89832</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -919,40 +919,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>658743.2312543363</v>
+        <v>658733.0048414731</v>
       </c>
       <c r="R4" t="n">
-        <v>6637305.564015599</v>
+        <v>6636920.163120084</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1021,10 +1020,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96777066</v>
+        <v>96779825</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>89376</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,25 +1032,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>4660</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1062,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>658712.8441804391</v>
+        <v>658637.0597997338</v>
       </c>
       <c r="R5" t="n">
-        <v>6637414.964914286</v>
+        <v>6636982.990721731</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1134,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96780597</v>
+        <v>96775736</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>89412</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,21 +1149,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1175,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>658693.8994370478</v>
+        <v>658730.5226168972</v>
       </c>
       <c r="R6" t="n">
-        <v>6637469.000542388</v>
+        <v>6637449.43415721</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1247,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96780135</v>
+        <v>96777744</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,39 +1258,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>658733.0048414731</v>
+        <v>658769.3765012868</v>
       </c>
       <c r="R7" t="n">
-        <v>6636920.163120084</v>
+        <v>6637283.535847809</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96779183</v>
+        <v>96779798</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>43464</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,36 +1376,41 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>101735</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>658704.2164550385</v>
+        <v>658637.0597997338</v>
       </c>
       <c r="R8" t="n">
-        <v>6637062.857129692</v>
+        <v>6636982.990721731</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1474,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96780122</v>
+        <v>96780278</v>
       </c>
       <c r="B9" t="n">
-        <v>89832</v>
+        <v>93132</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,39 +1491,40 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>2671</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>658733.0048414731</v>
+        <v>658722.9088558007</v>
       </c>
       <c r="R9" t="n">
-        <v>6636920.163120084</v>
+        <v>6636991.191442309</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1587,10 +1593,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96779825</v>
+        <v>96779993</v>
       </c>
       <c r="B10" t="n">
-        <v>89376</v>
+        <v>43464</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,35 +1609,41 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4660</v>
+        <v>101735</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>658637.0597997338</v>
+        <v>658739.4120713262</v>
       </c>
       <c r="R10" t="n">
-        <v>6636982.990721731</v>
+        <v>6636888.229354058</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1700,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96779798</v>
+        <v>96778360</v>
       </c>
       <c r="B11" t="n">
-        <v>43464</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1716,41 +1728,36 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>101735</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>658637.0597997338</v>
+        <v>658743.2312543363</v>
       </c>
       <c r="R11" t="n">
-        <v>6636982.990721731</v>
+        <v>6637305.564015599</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1819,10 +1826,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96780278</v>
+        <v>96780357</v>
       </c>
       <c r="B12" t="n">
-        <v>93132</v>
+        <v>98520</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1835,21 +1842,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2671</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>658722.9088558007</v>
+        <v>658747.5451754113</v>
       </c>
       <c r="R12" t="n">
-        <v>6636991.191442309</v>
+        <v>6637110.504147635</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1933,10 +1940,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96779993</v>
+        <v>96780175</v>
       </c>
       <c r="B13" t="n">
-        <v>43464</v>
+        <v>90005</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,41 +1956,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>101735</v>
+        <v>1339</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>658739.4120713262</v>
+        <v>658742.8409314866</v>
       </c>
       <c r="R13" t="n">
-        <v>6636888.229354058</v>
+        <v>6636937.694258579</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2052,10 +2053,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96780357</v>
+        <v>96777066</v>
       </c>
       <c r="B14" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2064,40 +2065,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Uppsala, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>658747.5451754113</v>
+        <v>658712.8441804391</v>
       </c>
       <c r="R14" t="n">
-        <v>6637110.504147635</v>
+        <v>6637414.964914286</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96780175</v>
+        <v>96780597</v>
       </c>
       <c r="B15" t="n">
-        <v>90005</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2178,25 +2178,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1339</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2207,10 +2207,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>658742.8409314866</v>
+        <v>658693.8994370478</v>
       </c>
       <c r="R15" t="n">
-        <v>6636937.694258579</v>
+        <v>6637469.000542388</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
